--- a/data/File_3_FerretMicrobiomeMetadata.xlxs.xlsx
+++ b/data/File_3_FerretMicrobiomeMetadata.xlxs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10412"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tao/Documents/Documents_2018/Fludynemo_Microbiome/NYU_biom_files/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmorton/Dropbox (Simons Foundation)/Research/ferrets/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C25CCA1-47C1-0E4E-9B1A-CEE0834615AA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9E45B76-380C-5249-A02D-71AAB534348E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21540" windowHeight="10620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,17 @@
     <sheet name="both sepdata metadata（1059） " sheetId="2" r:id="rId1"/>
     <sheet name="only seqdata(N=90)" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -6659,8 +6669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M1060"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A346" workbookViewId="0">
-      <selection activeCell="D1043" sqref="D1043"/>
+    <sheetView tabSelected="1" topLeftCell="A929" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
